--- a/source-code/experimental xgboost/hasil_percobaan1.xlsx
+++ b/source-code/experimental xgboost/hasil_percobaan1.xlsx
@@ -450,7 +450,7 @@
         <v>3.000000000000292</v>
       </c>
       <c r="B2" t="n">
-        <v>11.5664529800415</v>
+        <v>11.99476528167725</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>19.00000000000025</v>
       </c>
       <c r="B3" t="n">
-        <v>19.9539737701416</v>
+        <v>20.26801109313965</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>20.00000000000034</v>
       </c>
       <c r="B4" t="n">
-        <v>21.19122314453125</v>
+        <v>20.96869087219238</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40.94296264648438</v>
+        <v>40.61861419677734</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>61.99999999999963</v>
       </c>
       <c r="B6" t="n">
-        <v>62.24599456787109</v>
+        <v>61.86751556396484</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>107</v>
       </c>
       <c r="B7" t="n">
-        <v>91.47859191894531</v>
+        <v>92.94352722167969</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>158.0000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>160.0153350830078</v>
+        <v>158.7016143798828</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>264.0000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>266.0682373046875</v>
+        <v>265.2158813476562</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>61.00000000000033</v>
       </c>
       <c r="B10" t="n">
-        <v>61.97148132324219</v>
+        <v>62.10938262939453</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>20.99999999999964</v>
       </c>
       <c r="B11" t="n">
-        <v>31.42903137207031</v>
+        <v>31.15065002441406</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B12" t="n">
-        <v>42.93158340454102</v>
+        <v>42.58489608764648</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B13" t="n">
-        <v>22.16383934020996</v>
+        <v>22.37863922119141</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12.99999999999966</v>
       </c>
       <c r="B14" t="n">
-        <v>22.16383934020996</v>
+        <v>22.37863922119141</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>7.999999999999978</v>
       </c>
       <c r="B15" t="n">
-        <v>11.85471534729004</v>
+        <v>12.29806327819824</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B16" t="n">
-        <v>21.39700126647949</v>
+        <v>21.78407096862793</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>34.00000000000011</v>
       </c>
       <c r="B17" t="n">
-        <v>46.77779769897461</v>
+        <v>47.29761123657227</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>28.00000000000032</v>
       </c>
       <c r="B18" t="n">
-        <v>26.63211250305176</v>
+        <v>27.20090484619141</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>146.9999999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>125.1657104492188</v>
+        <v>128.9371795654297</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>182.0000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>188.5038604736328</v>
+        <v>187.7026519775391</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>411</v>
       </c>
       <c r="B21" t="n">
-        <v>403.054931640625</v>
+        <v>402.2502746582031</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>351.9999999999998</v>
       </c>
       <c r="B22" t="n">
-        <v>352.4063110351562</v>
+        <v>352.2903137207031</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>37.99999999999969</v>
       </c>
       <c r="B23" t="n">
-        <v>46.85727310180664</v>
+        <v>48.22683715820312</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B24" t="n">
-        <v>27.78644943237305</v>
+        <v>28.41194725036621</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>10.00000000000017</v>
       </c>
       <c r="B25" t="n">
-        <v>22.16383934020996</v>
+        <v>22.37863922119141</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>6.999999999999881</v>
       </c>
       <c r="B26" t="n">
-        <v>10.98906993865967</v>
+        <v>11.38859844207764</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>18.00000000000015</v>
       </c>
       <c r="B27" t="n">
-        <v>21.10831069946289</v>
+        <v>21.48077392578125</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>20.99999999999964</v>
       </c>
       <c r="B28" t="n">
-        <v>20.90296173095703</v>
+        <v>20.66582107543945</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>75.0000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>42.93158340454102</v>
+        <v>42.58489608764648</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>44.00000000000028</v>
       </c>
       <c r="B30" t="n">
-        <v>45.08817672729492</v>
+        <v>46.05477905273438</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>115</v>
       </c>
       <c r="B31" t="n">
-        <v>65.19004821777344</v>
+        <v>62.77569198608398</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>732</v>
       </c>
       <c r="B32" t="n">
-        <v>716.9055786132812</v>
+        <v>716.90771484375</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>3962</v>
       </c>
       <c r="B33" t="n">
-        <v>3948.456787109375</v>
+        <v>3948.365234375</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>3913</v>
       </c>
       <c r="B34" t="n">
-        <v>3905.86572265625</v>
+        <v>3905.79736328125</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1735</v>
       </c>
       <c r="B35" t="n">
-        <v>1735.27734375</v>
+        <v>1735.156616210938</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>44.00000000000028</v>
       </c>
       <c r="B36" t="n">
-        <v>50.83494186401367</v>
+        <v>50.77222061157227</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>27.00000000000023</v>
       </c>
       <c r="B37" t="n">
-        <v>65.19004821777344</v>
+        <v>62.77569198608398</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>23.99999999999994</v>
       </c>
       <c r="B38" t="n">
-        <v>24.65251350402832</v>
+        <v>24.64177513122559</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>59.00000000000014</v>
       </c>
       <c r="B39" t="n">
-        <v>43.7972297668457</v>
+        <v>43.49393081665039</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>60.00000000000023</v>
       </c>
       <c r="B40" t="n">
-        <v>61.82756423950195</v>
+        <v>59.48624038696289</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>27.00000000000023</v>
       </c>
       <c r="B41" t="n">
-        <v>31.07546997070312</v>
+        <v>30.84821128845215</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>23.99999999999994</v>
       </c>
       <c r="B42" t="n">
-        <v>24.65251350402832</v>
+        <v>24.64177513122559</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B43" t="n">
-        <v>43.7972297668457</v>
+        <v>43.49393081665039</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>64.99999999999993</v>
       </c>
       <c r="B44" t="n">
-        <v>46.77779769897461</v>
+        <v>47.29761123657227</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B45" t="n">
-        <v>39.04971313476562</v>
+        <v>40.97861862182617</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>39.99999999999989</v>
       </c>
       <c r="B46" t="n">
-        <v>46.77779769897461</v>
+        <v>47.29761123657227</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>29.99999999999972</v>
       </c>
       <c r="B47" t="n">
-        <v>30.64973449707031</v>
+        <v>31.49604797363281</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>7.999999999999978</v>
       </c>
       <c r="B48" t="n">
-        <v>25.47820663452148</v>
+        <v>23.63822746276855</v>
       </c>
     </row>
   </sheetData>

--- a/source-code/experimental xgboost/hasil_percobaan1.xlsx
+++ b/source-code/experimental xgboost/hasil_percobaan1.xlsx
@@ -450,7 +450,7 @@
         <v>3.000000000000292</v>
       </c>
       <c r="B2" t="n">
-        <v>11.99476528167725</v>
+        <v>11.73786354064941</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>19.00000000000025</v>
       </c>
       <c r="B3" t="n">
-        <v>20.26801109313965</v>
+        <v>18.70942115783691</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>20.00000000000034</v>
       </c>
       <c r="B4" t="n">
-        <v>20.96869087219238</v>
+        <v>21.23160552978516</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40.61861419677734</v>
+        <v>40.74921417236328</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>61.99999999999963</v>
       </c>
       <c r="B6" t="n">
-        <v>61.86751556396484</v>
+        <v>61.67720413208008</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>107</v>
       </c>
       <c r="B7" t="n">
-        <v>92.94352722167969</v>
+        <v>96.67503356933594</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>158.0000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>158.7016143798828</v>
+        <v>159.2875823974609</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>264.0000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>265.2158813476562</v>
+        <v>264.8060607910156</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>61.00000000000033</v>
       </c>
       <c r="B10" t="n">
-        <v>62.10938262939453</v>
+        <v>62.98490905761719</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>20.99999999999964</v>
       </c>
       <c r="B11" t="n">
-        <v>31.15065002441406</v>
+        <v>30.73608589172363</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B12" t="n">
-        <v>42.58489608764648</v>
+        <v>43.27268600463867</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B13" t="n">
-        <v>22.37863922119141</v>
+        <v>22.99984169006348</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12.99999999999966</v>
       </c>
       <c r="B14" t="n">
-        <v>22.37863922119141</v>
+        <v>22.99984169006348</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>7.999999999999978</v>
       </c>
       <c r="B15" t="n">
-        <v>12.29806327819824</v>
+        <v>12.39085674285889</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B16" t="n">
-        <v>21.78407096862793</v>
+        <v>21.97953987121582</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>34.00000000000011</v>
       </c>
       <c r="B17" t="n">
-        <v>47.29761123657227</v>
+        <v>45.13629150390625</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>28.00000000000032</v>
       </c>
       <c r="B18" t="n">
-        <v>27.20090484619141</v>
+        <v>27.23312377929688</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>146.9999999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>128.9371795654297</v>
+        <v>123.0791397094727</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>182.0000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>187.7026519775391</v>
+        <v>188.1653289794922</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>411</v>
       </c>
       <c r="B21" t="n">
-        <v>402.2502746582031</v>
+        <v>402.7194213867188</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>351.9999999999998</v>
       </c>
       <c r="B22" t="n">
-        <v>352.2903137207031</v>
+        <v>352.3191223144531</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>37.99999999999969</v>
       </c>
       <c r="B23" t="n">
-        <v>48.22683715820312</v>
+        <v>48.82870864868164</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B24" t="n">
-        <v>28.41194725036621</v>
+        <v>29.83607292175293</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>10.00000000000017</v>
       </c>
       <c r="B25" t="n">
-        <v>22.37863922119141</v>
+        <v>22.99984169006348</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>6.999999999999881</v>
       </c>
       <c r="B26" t="n">
-        <v>11.38859844207764</v>
+        <v>10.4310188293457</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>18.00000000000015</v>
       </c>
       <c r="B27" t="n">
-        <v>21.48077392578125</v>
+        <v>21.32654762268066</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>20.99999999999964</v>
       </c>
       <c r="B28" t="n">
-        <v>20.66582107543945</v>
+        <v>20.57947158813477</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>75.0000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>42.58489608764648</v>
+        <v>43.27268600463867</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>44.00000000000028</v>
       </c>
       <c r="B30" t="n">
-        <v>46.05477905273438</v>
+        <v>46.61884307861328</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>115</v>
       </c>
       <c r="B31" t="n">
-        <v>62.77569198608398</v>
+        <v>63.62715911865234</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>732</v>
       </c>
       <c r="B32" t="n">
-        <v>716.90771484375</v>
+        <v>717.3729858398438</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>3962</v>
       </c>
       <c r="B33" t="n">
-        <v>3948.365234375</v>
+        <v>3948.41796875</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>3913</v>
       </c>
       <c r="B34" t="n">
-        <v>3905.79736328125</v>
+        <v>3905.627685546875</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1735</v>
       </c>
       <c r="B35" t="n">
-        <v>1735.156616210938</v>
+        <v>1735.006713867188</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>44.00000000000028</v>
       </c>
       <c r="B36" t="n">
-        <v>50.77222061157227</v>
+        <v>50.83966827392578</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>27.00000000000023</v>
       </c>
       <c r="B37" t="n">
-        <v>62.77569198608398</v>
+        <v>63.62715911865234</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>23.99999999999994</v>
       </c>
       <c r="B38" t="n">
-        <v>24.64177513122559</v>
+        <v>23.65111541748047</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>59.00000000000014</v>
       </c>
       <c r="B39" t="n">
-        <v>43.49393081665039</v>
+        <v>45.22908782958984</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>60.00000000000023</v>
       </c>
       <c r="B40" t="n">
-        <v>59.48624038696289</v>
+        <v>60.66635513305664</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>27.00000000000023</v>
       </c>
       <c r="B41" t="n">
-        <v>30.84821128845215</v>
+        <v>30.08781814575195</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>23.99999999999994</v>
       </c>
       <c r="B42" t="n">
-        <v>24.64177513122559</v>
+        <v>23.65111541748047</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B43" t="n">
-        <v>43.49393081665039</v>
+        <v>45.22908782958984</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>64.99999999999993</v>
       </c>
       <c r="B44" t="n">
-        <v>47.29761123657227</v>
+        <v>45.13629150390625</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B45" t="n">
-        <v>40.97861862182617</v>
+        <v>40.14734268188477</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>39.99999999999989</v>
       </c>
       <c r="B46" t="n">
-        <v>47.29761123657227</v>
+        <v>45.13629150390625</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>29.99999999999972</v>
       </c>
       <c r="B47" t="n">
-        <v>31.49604797363281</v>
+        <v>31.13690185546875</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>7.999999999999978</v>
       </c>
       <c r="B48" t="n">
-        <v>23.63822746276855</v>
+        <v>24.62802696228027</v>
       </c>
     </row>
   </sheetData>

--- a/source-code/experimental xgboost/hasil_percobaan1.xlsx
+++ b/source-code/experimental xgboost/hasil_percobaan1.xlsx
@@ -450,7 +450,7 @@
         <v>3.000000000000292</v>
       </c>
       <c r="B2" t="n">
-        <v>11.73786354064941</v>
+        <v>12.07037448883057</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>19.00000000000025</v>
       </c>
       <c r="B3" t="n">
-        <v>18.70942115783691</v>
+        <v>19.49601936340332</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>20.00000000000034</v>
       </c>
       <c r="B4" t="n">
-        <v>21.23160552978516</v>
+        <v>20.6868724822998</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>40.99999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>40.74921417236328</v>
+        <v>40.39178466796875</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>61.99999999999963</v>
       </c>
       <c r="B6" t="n">
-        <v>61.67720413208008</v>
+        <v>61.97706604003906</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>107</v>
       </c>
       <c r="B7" t="n">
-        <v>96.67503356933594</v>
+        <v>95.75955963134766</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>158.0000000000002</v>
       </c>
       <c r="B8" t="n">
-        <v>159.2875823974609</v>
+        <v>159.0362701416016</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>264.0000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>264.8060607910156</v>
+        <v>265.8220520019531</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>61.00000000000033</v>
       </c>
       <c r="B10" t="n">
-        <v>62.98490905761719</v>
+        <v>62.10121917724609</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>20.99999999999964</v>
       </c>
       <c r="B11" t="n">
-        <v>30.73608589172363</v>
+        <v>30.51569938659668</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B12" t="n">
-        <v>43.27268600463867</v>
+        <v>42.44183731079102</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B13" t="n">
-        <v>22.99984169006348</v>
+        <v>22.03066253662109</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>12.99999999999966</v>
       </c>
       <c r="B14" t="n">
-        <v>22.99984169006348</v>
+        <v>22.03066253662109</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>7.999999999999978</v>
       </c>
       <c r="B15" t="n">
-        <v>12.39085674285889</v>
+        <v>12.48450946807861</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B16" t="n">
-        <v>21.97953987121582</v>
+        <v>21.56841278076172</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>34.00000000000011</v>
       </c>
       <c r="B17" t="n">
-        <v>45.13629150390625</v>
+        <v>47.5175666809082</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>28.00000000000032</v>
       </c>
       <c r="B18" t="n">
-        <v>27.23312377929688</v>
+        <v>27.53341484069824</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>146.9999999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>123.0791397094727</v>
+        <v>128.76318359375</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>182.0000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>188.1653289794922</v>
+        <v>188.2074279785156</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>411</v>
       </c>
       <c r="B21" t="n">
-        <v>402.7194213867188</v>
+        <v>402.6742858886719</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>351.9999999999998</v>
       </c>
       <c r="B22" t="n">
-        <v>352.3191223144531</v>
+        <v>352.6842651367188</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>37.99999999999969</v>
       </c>
       <c r="B23" t="n">
-        <v>48.82870864868164</v>
+        <v>47.24047470092773</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>26.00000000000013</v>
       </c>
       <c r="B24" t="n">
-        <v>29.83607292175293</v>
+        <v>29.18952369689941</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>10.00000000000017</v>
       </c>
       <c r="B25" t="n">
-        <v>22.99984169006348</v>
+        <v>22.03066253662109</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>6.999999999999881</v>
       </c>
       <c r="B26" t="n">
-        <v>10.4310188293457</v>
+        <v>11.24167537689209</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>18.00000000000015</v>
       </c>
       <c r="B27" t="n">
-        <v>21.32654762268066</v>
+        <v>21.15427780151367</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>20.99999999999964</v>
       </c>
       <c r="B28" t="n">
-        <v>20.57947158813477</v>
+        <v>20.27273750305176</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>75.0000000000001</v>
       </c>
       <c r="B29" t="n">
-        <v>43.27268600463867</v>
+        <v>42.44183731079102</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>44.00000000000028</v>
       </c>
       <c r="B30" t="n">
-        <v>46.61884307861328</v>
+        <v>44.95070648193359</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>115</v>
       </c>
       <c r="B31" t="n">
-        <v>63.62715911865234</v>
+        <v>63.21860885620117</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>732</v>
       </c>
       <c r="B32" t="n">
-        <v>717.3729858398438</v>
+        <v>717.263427734375</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>3962</v>
       </c>
       <c r="B33" t="n">
-        <v>3948.41796875</v>
+        <v>3948.666748046875</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>3913</v>
       </c>
       <c r="B34" t="n">
-        <v>3905.627685546875</v>
+        <v>3906.05517578125</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1735</v>
       </c>
       <c r="B35" t="n">
-        <v>1735.006713867188</v>
+        <v>1735.394165039062</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>44.00000000000028</v>
       </c>
       <c r="B36" t="n">
-        <v>50.83966827392578</v>
+        <v>51.10688018798828</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>27.00000000000023</v>
       </c>
       <c r="B37" t="n">
-        <v>63.62715911865234</v>
+        <v>63.21860885620117</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>23.99999999999994</v>
       </c>
       <c r="B38" t="n">
-        <v>23.65111541748047</v>
+        <v>24.47208213806152</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>59.00000000000014</v>
       </c>
       <c r="B39" t="n">
-        <v>45.22908782958984</v>
+        <v>43.68467330932617</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>60.00000000000023</v>
       </c>
       <c r="B40" t="n">
-        <v>60.66635513305664</v>
+        <v>59.07597351074219</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>27.00000000000023</v>
       </c>
       <c r="B41" t="n">
-        <v>30.08781814575195</v>
+        <v>30.10199546813965</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>23.99999999999994</v>
       </c>
       <c r="B42" t="n">
-        <v>23.65111541748047</v>
+        <v>24.47208213806152</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B43" t="n">
-        <v>45.22908782958984</v>
+        <v>43.68467330932617</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>64.99999999999993</v>
       </c>
       <c r="B44" t="n">
-        <v>45.13629150390625</v>
+        <v>47.5175666809082</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>28.99999999999962</v>
       </c>
       <c r="B45" t="n">
-        <v>40.14734268188477</v>
+        <v>40.8166618347168</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>39.99999999999989</v>
       </c>
       <c r="B46" t="n">
-        <v>45.13629150390625</v>
+        <v>47.5175666809082</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>29.99999999999972</v>
       </c>
       <c r="B47" t="n">
-        <v>31.13690185546875</v>
+        <v>30.01736259460449</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>7.999999999999978</v>
       </c>
       <c r="B48" t="n">
-        <v>24.62802696228027</v>
+        <v>23.40194702148438</v>
       </c>
     </row>
   </sheetData>
